--- a/biology/Médecine/Hôtel-Dieu_d'Angers/Hôtel-Dieu_d'Angers.xlsx
+++ b/biology/Médecine/Hôtel-Dieu_d'Angers/Hôtel-Dieu_d'Angers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Angers</t>
+          <t>Hôtel-Dieu_d'Angers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôtel-Dieu d'Angers est l'un des premiers hôpitaux fondés en France.
 Il est créé en 1175 par Étienne de Marsay, sénéchal d'Anjou selon la volonté d'Henri II Plantagenêt, roi d'Angleterre et comte d'Anjou. D'abord situé dans la commanderie Saint-Jean, il est transféré en 1870 dans l'hôpital Sainte-Marguerite qui deviendra l'actuel centre hospitalier universitaire d'Angers.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Angers</t>
+          <t>Hôtel-Dieu_d'Angers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Du XIIe siècle au XIXe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À sa création, l'Hôtel-Dieu est composé d'une grande salle des malades, d'une apothicairerie, d'un cloître, d'une chapelle et de plusieurs salles de soins[1]. Au XIXe siècle il peut contenir jusqu'à 500 malades.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À sa création, l'Hôtel-Dieu est composé d'une grande salle des malades, d'une apothicairerie, d'un cloître, d'une chapelle et de plusieurs salles de soins. Au XIXe siècle il peut contenir jusqu'à 500 malades.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Angers</t>
+          <t>Hôtel-Dieu_d'Angers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,18 +557,89 @@
           <t>À partir du XIXe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Hôtel-Dieu est transféré en 1870 dans le nouvel hôpital Sainte-Marguerite située au nord d'Angers dans l'actuel quartier des Capucins. Il est actuellement composé de deux entités distinctes[2].
-Hôtel-Dieu Nord
-Spécialités :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôtel-Dieu est transféré en 1870 dans le nouvel hôpital Sainte-Marguerite située au nord d'Angers dans l'actuel quartier des Capucins. Il est actuellement composé de deux entités distinctes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu_d'Angers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4tel-Dieu_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>À partir du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu Nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spécialités :
 Anesthésie ORL - stomato - plastique
 Centre de coordination de cancérologie
 Médecine post-urgences
 Sécurité transfusionnelle et hémovigilance
-Soins palliatifs - équipe mobile
-Hôtel-Dieu Sud
-Spécialités :
+Soins palliatifs - équipe mobile</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu_d'Angers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4tel-Dieu_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>À partir du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu Sud</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Spécialités :
 Dermatologie - vénéréologie
 Diététique
 Endocrinologie - diabétologie - nutrition
